--- a/PES/SRB Invoices/1090  Invoice for rehabilitation work for bathroom FTC building.xlsx
+++ b/PES/SRB Invoices/1090  Invoice for rehabilitation work for bathroom FTC building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CCA984-49EA-4945-9BFA-3326F8405201}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CE17C6-F26B-4CF1-9CF6-6D221E86A6A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,13 +85,13 @@
     <t>Value Including Sales Tax</t>
   </si>
   <si>
-    <t>Dated: 25-02-2025</t>
-  </si>
-  <si>
     <t>Invoice # 1090</t>
   </si>
   <si>
     <t>Rehabilitation charges for bathroom at various floor - Fakhri Trade Center. Karachi.</t>
+  </si>
+  <si>
+    <t>Dated: 19-03-2025</t>
   </si>
 </sst>
 </file>
@@ -421,6 +421,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,24 +480,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -854,16 +854,16 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -883,11 +883,11 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
+      <c r="F11" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -895,11 +895,11 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
+      <c r="F12" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -917,81 +917,81 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="35"/>
       <c r="E15" s="4"/>
       <c r="F15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="36"/>
       <c r="E16" s="3"/>
       <c r="F16" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="53"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="26"/>
       <c r="E17" s="3"/>
       <c r="F17" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="37"/>
       <c r="E18" s="3"/>
       <c r="F18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1015,11 +1015,11 @@
       <c r="A22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="30" t="s">
         <v>13</v>
       </c>
@@ -1046,9 +1046,9 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="9"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1057,9 +1057,9 @@
     </row>
     <row r="25" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="9"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1067,25 +1067,25 @@
       <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="42">
+      <c r="A26" s="48">
         <v>1</v>
       </c>
-      <c r="B26" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="59">
+      <c r="B26" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45">
         <v>1290000</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="46">
         <v>0.15</v>
       </c>
-      <c r="G26" s="59">
+      <c r="G26" s="45">
         <f>E26*15%</f>
         <v>193500</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="56">
         <f>E26+G26</f>
         <v>1483500</v>
       </c>
@@ -1093,14 +1093,14 @@
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="50"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="56"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
@@ -1169,11 +1169,11 @@
     </row>
     <row r="34" spans="1:10" s="22" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34"/>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="18">
         <f>SUM(E26:E32)</f>
         <v>1290000</v>
@@ -1236,11 +1236,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B16:C16"/>
@@ -1257,6 +1252,11 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B24:D25"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
